--- a/PYTHON/DATA_SCIENCE/BA + EXCEL/Practice_Feb/Practice/Lesson 6/Datasets/Chart.xlsx
+++ b/PYTHON/DATA_SCIENCE/BA + EXCEL/Practice_Feb/Practice/Lesson 6/Datasets/Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gssbvenk\Desktop\Simplilearn\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB_FILES\GitHub\STACK-DEV-MODULE\PYTHON\DATA_SCIENCE\BA + EXCEL\Practice_Feb\Practice\Lesson 6\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BAF25E-FFFE-4C7E-9A83-4A118E2223D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD11AA1-45F8-4825-BACA-A793181B061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14610" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Scroll Bar" sheetId="9" r:id="rId7"/>
     <sheet name="Developer" sheetId="6" r:id="rId8"/>
     <sheet name="Exercise" sheetId="10" r:id="rId9"/>
+    <sheet name="DATA" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
   <si>
     <t>Months</t>
   </si>
@@ -570,12 +576,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,22 +593,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -622,8 +628,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,27 +641,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1123,2591 +1126,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart Formatting'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Net Sales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Calvin</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Daniel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Henry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Justin</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Paul</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sindy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart Formatting'!$C$7:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1254184.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1271887.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1178009.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1342694</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1171745</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1189646.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1291203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD10-4BDE-8A98-491D11E8E760}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="696642432"/>
-        <c:axId val="696642824"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Chart Formatting'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit / Loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Calvin</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Daniel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Henry</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Justin</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Paul</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sindy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart Formatting'!$D$7:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>426294.67915000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>485028.60967500001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>437306.96527500002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>459900.91060000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>458207.86007500015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>471603.82100000046</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>464468.41500000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD10-4BDE-8A98-491D11E8E760}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="696642432"/>
-        <c:axId val="696642824"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="696642432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696642824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="696642824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696642432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent1">
-        <a:lumMod val="40000"/>
-        <a:lumOff val="60000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Thermometer Chart'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percentage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Thermometer Chart'!$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.86993695000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE45-4ACC-BCCB-88050E130E42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-27"/>
-        <c:axId val="334067376"/>
-        <c:axId val="334068688"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="334067376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="334068688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="334068688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="334067376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16608748906386703"/>
-          <c:y val="0.10648148148148148"/>
-          <c:w val="0.73678980752405954"/>
-          <c:h val="0.49410943423738701"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pareto Chart'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pareto Chart'!$C$6:$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Payment Gateway Failure</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Website Very Slow</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Poor Product Listing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Stock Limited</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Low Conversion Rate</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lack of Reviews</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Out of Stock Item Listed</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Shipment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>No Live Communication Option</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bad Listing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pareto Chart'!$D$6:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CCC0-4783-9C6B-831590E874FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="96"/>
-        <c:overlap val="-27"/>
-        <c:axId val="696645960"/>
-        <c:axId val="696646352"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pareto Chart'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Commulative Fequency %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pareto Chart'!$C$6:$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Payment Gateway Failure</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Website Very Slow</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Poor Product Listing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Stock Limited</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Low Conversion Rate</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lack of Reviews</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Out of Stock Item Listed</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Shipment</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>No Live Communication Option</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Bad Listing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pareto Chart'!$F$6:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.45454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76033057851239672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88429752066115708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92561983471074383</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95041322314049592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96694214876033058</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97520661157024791</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98347107438016534</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99173553719008267</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CCC0-4783-9C6B-831590E874FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="696647136"/>
-        <c:axId val="696646744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="696645960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696646352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="696646352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696645960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="696646744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696647136"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="696647136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696646744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Combobox!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Months</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Combobox!$G$7:$G$18</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Combobox!$H$7:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>275084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>233695.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220452.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>285377.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292400.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>205581.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>283514.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255519.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>177774.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>242503.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>212354.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>190275.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17A5-4243-B6E6-8D605CA7B161}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="80"/>
-        <c:overlap val="-27"/>
-        <c:axId val="696647920"/>
-        <c:axId val="696648312"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="696647920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696648312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="696648312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696647920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Checkbox!$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>North</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Checkbox!$C$15:$N$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Checkbox!$C$16:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>275084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>233695.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220452.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>285377.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>292400.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>205581.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>283514.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>255519.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>177774.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>242503.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>212354.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>190275.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Checkbox!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Checkbox!$C$15:$N$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Checkbox!$C$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Checkbox!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Middle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Checkbox!$C$15:$N$15</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Checkbox!$C$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>264246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>285004.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>246641.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240793.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>222198.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>245207.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>268542</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>197305.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>248659.75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>199935</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>195347</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>237966.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="331996008"/>
-        <c:axId val="331996336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="331996008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="331996336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="331996336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="331996008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>North</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Oct'15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nov'15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dec'15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scroll Bar'!$C$16:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>242503.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>212354.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190275.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C719-4C9F-A896-FEB07C22AE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$B$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>West</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Oct'15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nov'15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dec'15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scroll Bar'!$C$17:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>195045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>191962.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C719-4C9F-A896-FEB07C22AE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Middle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Oct'15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Nov'15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dec'15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scroll Bar'!$C$18:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>199935</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>195347</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>237966.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C719-4C9F-A896-FEB07C22AE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="411858352"/>
-        <c:axId val="411858680"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="411858352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411858680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="411858680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411858352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4274,7 +1693,3543 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.184248031496063"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.81575196850393705"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1254184.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1271887.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178009.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1342694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1171745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1189646.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1291203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D14-4157-A367-E336748F1CE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1381071248"/>
+        <c:axId val="1381068752"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Chart!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit / Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Chart!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Chart!$D$7:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>426294.67915000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485028.60967500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>437306.96527500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459900.91060000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458207.86007500015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471603.82100000046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464468.41500000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D14-4157-A367-E336748F1CE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1381071248"/>
+        <c:axId val="1381068752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1381071248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381068752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1381068752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381071248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart Formatting'!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1254184.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1271887.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178009.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1342694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1171745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1189646.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1291203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD10-4BDE-8A98-491D11E8E760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="696642432"/>
+        <c:axId val="696642824"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit / Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart Formatting'!$D$7:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>426294.67915000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485028.60967500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>437306.96527500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459900.91060000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458207.86007500015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471603.82100000046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464468.41500000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD10-4BDE-8A98-491D11E8E760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="696642432"/>
+        <c:axId val="696642824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696642432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696642824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696642824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696642432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1">
+        <a:lumMod val="40000"/>
+        <a:lumOff val="60000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart Formatting'!$C$7:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1254184.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1271887.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178009.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1342694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1171745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1189646.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1291203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACA2-4325-8B7B-321364B21E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1454914576"/>
+        <c:axId val="1454912496"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit / Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Chart Formatting'!$B$7:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Calvin</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Daniel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Henry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Justin</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sindy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart Formatting'!$D$7:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>426294.67915000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485028.60967500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>437306.96527500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459900.91060000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>458207.86007500015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>471603.82100000046</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>464468.41500000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACA2-4325-8B7B-321364B21E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1454914576"/>
+        <c:axId val="1454912496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1454914576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454912496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454912496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150000"/>
+          <c:min val="-100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454914576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Thermometer Chart'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Thermometer Chart'!$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.86993695000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE45-4ACC-BCCB-88050E130E42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="334067376"/>
+        <c:axId val="334068688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334067376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334068688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334068688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334067376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16608748906386703"/>
+          <c:y val="0.10648148148148148"/>
+          <c:w val="0.73678980752405954"/>
+          <c:h val="0.49410943423738701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$C$6:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Payment Gateway Failure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Website Very Slow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Poor Product Listing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stock Limited</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Low Conversion Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lack of Reviews</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Out of Stock Item Listed</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shipment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No Live Communication Option</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bad Listing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pareto Chart'!$D$6:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCC0-4783-9C6B-831590E874FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="96"/>
+        <c:overlap val="-27"/>
+        <c:axId val="696645960"/>
+        <c:axId val="696646352"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Commulative Fequency %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pareto Chart'!$C$6:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Payment Gateway Failure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Website Very Slow</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Poor Product Listing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stock Limited</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Low Conversion Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lack of Reviews</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Out of Stock Item Listed</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Shipment</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No Live Communication Option</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bad Listing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pareto Chart'!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76033057851239672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88429752066115708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92561983471074383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95041322314049592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96694214876033058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97520661157024791</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98347107438016534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99173553719008267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCC0-4783-9C6B-831590E874FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="696647136"/>
+        <c:axId val="696646744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696645960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696646352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696646352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696645960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696646744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696647136"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="696647136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="696646744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combobox!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Months</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combobox!$G$7:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combobox!$H$7:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233695.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220452.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285377.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292400.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205581.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283514.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255519.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177774.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242503.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>212354.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190275.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17A5-4243-B6E6-8D605CA7B161}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="-27"/>
+        <c:axId val="696647920"/>
+        <c:axId val="696648312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696647920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696648312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696648312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696647920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Checkbox!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Checkbox!$C$15:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Checkbox!$C$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>275084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233695.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220452.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285377.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292400.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205581.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>283514.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255519.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177774.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242503.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>212354.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>190275.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Checkbox!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Checkbox!$C$15:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Checkbox!$C$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>283246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278532.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>297115.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231685.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256641.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250941.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259804.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269355.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191962.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Checkbox!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Checkbox!$C$15:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Checkbox!$C$18:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.0_-;\-* #,##0.0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>264246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285004.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246641.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240793.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222198.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245207.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197305.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248659.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>237966.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AB6-4AA7-9611-7CD92BFA9D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="331996008"/>
+        <c:axId val="331996336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="331996008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331996336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331996336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331996008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mar'15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apr'15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>May'15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scroll Bar'!$C$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>220452.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285377.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292400.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C719-4C9F-A896-FEB07C22AE67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mar'15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apr'15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>May'15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scroll Bar'!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>297115.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231685.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256641.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C719-4C9F-A896-FEB07C22AE67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scroll Bar'!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Mar'15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apr'15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>May'15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scroll Bar'!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>246641.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240793.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222198.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C719-4C9F-A896-FEB07C22AE67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="411858352"/>
+        <c:axId val="411858680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="411858352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411858680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411858680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411858352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4594,6 +5549,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5097,8 +6092,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5206,11 +6201,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5221,11 +6211,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5257,9 +6242,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5613,7 +6595,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6116,8 +7098,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6225,6 +7207,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6235,6 +7222,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6266,6 +7258,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6619,7 +7614,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7122,8 +8117,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7231,11 +8226,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7246,11 +8236,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7282,9 +8267,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7638,7 +8620,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8141,7 +9123,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8653,7 +10654,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8661,7 +10662,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$A$15" horiz="1" max="10" min="1" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$A$15" horiz="1" max="10" min="1" page="10" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8786,6 +10787,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95240342-2043-8DAC-6F83-2F8215F0DC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8889,6 +10926,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4559A32-9374-AB09-82EA-CEBB26415DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9520,7 +11593,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9606,7 +11679,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9692,7 +11765,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10211,7 +12284,7 @@
   <dimension ref="B6:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10301,7 +12374,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="35">
@@ -10317,12 +12390,182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E173C6-EBE0-4EEA-BDAC-BA26BACB1DCD}">
+  <dimension ref="B5:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
+        <v>10742</v>
+      </c>
+      <c r="D6" s="28">
+        <f>C6/SUM($C$6:$C$17)</f>
+        <v>7.2270999428129312E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30">
+        <v>10582</v>
+      </c>
+      <c r="D7" s="28">
+        <f t="shared" ref="D7:D17" si="0">C7/SUM($C$6:$C$17)</f>
+        <v>7.1194536952938411E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30">
+        <v>11378</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>7.654993776701316E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="30">
+        <v>13771</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>9.2649779661587106E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30">
+        <v>12834</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>8.6345746291250372E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="30">
+        <v>12570</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>8.4569583207185384E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="30">
+        <v>13547</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>9.1142732196319839E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="30">
+        <v>13265</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="0"/>
+        <v>8.9245467083795882E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="30">
+        <v>11872</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="0"/>
+        <v>7.9873515659165062E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="30">
+        <v>13195</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="0"/>
+        <v>8.8774514750899855E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="30">
+        <v>11494</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="0"/>
+        <v>7.7330373061526556E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="31">
+        <v>13385</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>9.0052813940189047E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,7 +12655,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="35">
@@ -10455,7 +12698,7 @@
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>819831</v>
       </c>
     </row>
@@ -10463,7 +12706,7 @@
       <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>797472</v>
       </c>
     </row>
@@ -10471,7 +12714,7 @@
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>770359.5</v>
       </c>
     </row>
@@ -10479,7 +12722,7 @@
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>758220.75</v>
       </c>
     </row>
@@ -10487,7 +12730,7 @@
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>769886.5</v>
       </c>
     </row>
@@ -10495,7 +12738,7 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>696266.5</v>
       </c>
     </row>
@@ -10503,7 +12746,7 @@
       <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>818501.25</v>
       </c>
     </row>
@@ -10511,7 +12754,7 @@
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>711815.25</v>
       </c>
     </row>
@@ -10519,7 +12762,7 @@
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>639326.25</v>
       </c>
     </row>
@@ -10527,7 +12770,7 @@
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>632338.25</v>
       </c>
     </row>
@@ -10535,7 +12778,7 @@
       <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>663842.5</v>
       </c>
     </row>
@@ -10543,7 +12786,7 @@
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>621509.75</v>
       </c>
     </row>
@@ -10555,7 +12798,7 @@
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <v>10000000</v>
       </c>
     </row>
@@ -10563,7 +12806,7 @@
       <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <f>SUM(C6:C17)</f>
         <v>8699369.5</v>
       </c>
@@ -10845,289 +13088,289 @@
       <c r="Q1">
         <v>1</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="42" t="str">
+      <c r="H6" s="41" t="str">
         <f ca="1">OFFSET($B$6,0,$A$15)</f>
         <v>Months</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>275084</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="46">
         <v>283246</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>264246</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="45">
         <f ca="1">OFFSET($B$6,ROW()-6,$Q$1)</f>
         <v>275084</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <v>233695.5</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="46">
         <v>278532.25</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>285004.25</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <f t="shared" ref="H8:H18" ca="1" si="0">OFFSET($B$6,ROW()-6,$Q$1)</f>
         <v>233695.5</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>220452.25</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>297115.5</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>246641.75</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>220452.25</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <v>285377.5</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <v>231685.25</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <v>240793.5</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>285377.5</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="46">
         <v>292400.5</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
         <v>256641.75</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>222198.75</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>292400.5</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="46">
         <v>205581.5</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <v>250941.25</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>245207.75</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>205581.5</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="46">
         <v>283514.5</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="46">
         <v>259804.75</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>268542</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>283514.5</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>255519.5</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <v>269355.5</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>197305.25</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>255519.5</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="46">
         <v>177774.5</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46">
         <v>203022</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <v>248659.75</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>177774.5</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="46">
         <v>242503.25</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
         <v>195045</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <v>199935</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>242503.25</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="46">
         <v>212354.5</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="46">
         <v>255637</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <v>195347</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>212354.5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="46">
         <v>190275.5</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <v>191962.75</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>237966.5</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>190275.5</v>
       </c>
@@ -11208,207 +13451,207 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="41" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>275084</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <v>233695.5</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>220452.25</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="49">
         <v>285377.5</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="49">
         <v>292400.5</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="49">
         <v>205581.5</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="45">
         <v>283514.5</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="45">
         <v>255519.5</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="45">
         <v>177774.5</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="45">
         <v>242503.25</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="45">
         <v>212354.5</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="45">
         <v>190275.5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>283246</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="49">
         <v>278532.25</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <v>297115.5</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="49">
         <v>231685.25</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="49">
         <v>256641.75</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="49">
         <v>250941.25</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="45">
         <v>259804.75</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="45">
         <v>269355.5</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="45">
         <v>203022</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="45">
         <v>195045</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="45">
         <v>255637</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="45">
         <v>191962.75</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>264246</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <v>285004.25</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <v>246641.75</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <v>240793.5</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="49">
         <v>222198.75</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="49">
         <v>245207.75</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="45">
         <v>268542</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="45">
         <v>197305.25</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="45">
         <v>248659.75</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="45">
         <v>199935</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="45">
         <v>195347</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="45">
         <v>237966.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11416,183 +13659,184 @@
       <c r="A16" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="52" t="str">
+      <c r="B16" s="48" t="str">
         <f>IF($A16=TRUE,B7,0)</f>
         <v>North</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="49">
         <f>IF($A$16=TRUE,C7,0)</f>
         <v>275084</v>
       </c>
-      <c r="D16" s="51">
-        <f t="shared" ref="C16:N16" si="0">IF($A16=TRUE,D7,0)</f>
+      <c r="D16" s="49">
+        <f t="shared" ref="D16:N16" si="0">IF($A16=TRUE,D7,0)</f>
         <v>233695.5</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="49">
         <f t="shared" si="0"/>
         <v>220452.25</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <f t="shared" si="0"/>
         <v>285377.5</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="49">
         <f t="shared" si="0"/>
         <v>292400.5</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>205581.5</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="45">
         <f t="shared" si="0"/>
         <v>283514.5</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="45">
         <f t="shared" si="0"/>
         <v>255519.5</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="45">
         <f t="shared" si="0"/>
         <v>177774.5</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="45">
         <f t="shared" si="0"/>
         <v>242503.25</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="45">
         <f t="shared" si="0"/>
         <v>212354.5</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="45">
         <f t="shared" si="0"/>
         <v>190275.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="52">
+        <v>1</v>
+      </c>
+      <c r="B17" s="48" t="str">
         <f t="shared" ref="B17:N17" si="1">IF($A17=TRUE,B8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="51">
+        <v>West</v>
+      </c>
+      <c r="C17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="51">
+        <v>283246</v>
+      </c>
+      <c r="D17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="51">
+        <v>278532.25</v>
+      </c>
+      <c r="E17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
+        <v>297115.5</v>
+      </c>
+      <c r="F17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="51">
+        <v>231685.25</v>
+      </c>
+      <c r="G17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="51">
+        <v>256641.75</v>
+      </c>
+      <c r="H17" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="47">
+        <v>250941.25</v>
+      </c>
+      <c r="I17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="47">
+        <v>259804.75</v>
+      </c>
+      <c r="J17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="47">
+        <v>269355.5</v>
+      </c>
+      <c r="K17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="47">
+        <v>203022</v>
+      </c>
+      <c r="L17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="47">
+        <v>195045</v>
+      </c>
+      <c r="M17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="47">
+        <v>255637</v>
+      </c>
+      <c r="N17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191962.75</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="52" t="str">
+      <c r="B18" s="48" t="str">
         <f t="shared" ref="B18:N18" si="2">IF($A18=TRUE,B9,0)</f>
         <v>Middle</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <f t="shared" si="2"/>
         <v>264246</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <f t="shared" si="2"/>
         <v>285004.25</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="49">
         <f t="shared" si="2"/>
         <v>246641.75</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="49">
         <f t="shared" si="2"/>
         <v>240793.5</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="49">
         <f t="shared" si="2"/>
         <v>222198.75</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="49">
         <f t="shared" si="2"/>
         <v>245207.75</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="45">
         <f t="shared" si="2"/>
         <v>268542</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="45">
         <f t="shared" si="2"/>
         <v>197305.25</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="45">
         <f t="shared" si="2"/>
         <v>248659.75</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="45">
         <f t="shared" si="2"/>
         <v>199935</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="45">
         <f t="shared" si="2"/>
         <v>195347</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="45">
         <f t="shared" si="2"/>
         <v>237966.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7170" r:id="rId3" name="Check Box 2">
+            <control shapeId="7170" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11614,7 +13858,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7171" r:id="rId4" name="Check Box 3">
+            <control shapeId="7171" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11636,7 +13880,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="7172" r:id="rId5" name="Check Box 4">
+            <control shapeId="7172" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11666,8 +13910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11728,40 +13972,40 @@
       <c r="B7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="50">
         <v>275084</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="50">
         <v>233695.5</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="50">
         <v>220452.25</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="50">
         <v>285377.5</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="50">
         <v>292400.5</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="51">
         <v>205581.5</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="51">
         <v>283514.5</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="51">
         <v>255519.5</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="51">
         <v>177774.5</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="51">
         <v>242503.25</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="51">
         <v>212354.5</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="51">
         <v>190275.5</v>
       </c>
     </row>
@@ -11769,40 +14013,40 @@
       <c r="B8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="50">
         <v>283246</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="50">
         <v>278532.25</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="50">
         <v>297115.5</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="50">
         <v>231685.25</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="50">
         <v>256641.75</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="51">
         <v>250941.25</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="51">
         <v>259804.75</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="51">
         <v>269355.5</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="51">
         <v>203022</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="51">
         <v>195045</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="51">
         <v>255637</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="51">
         <v>191962.75</v>
       </c>
     </row>
@@ -11810,112 +14054,112 @@
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="52">
         <v>264246</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="52">
         <v>285004.25</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="52">
         <v>246641.75</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="52">
         <v>240793.5</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="52">
         <v>222198.75</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="53">
         <v>245207.75</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="53">
         <v>268542</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="53">
         <v>197305.25</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="53">
         <v>248659.75</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="53">
         <v>199935</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="53">
         <v>195347</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="53">
         <v>237966.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5" t="str">
         <f ca="1">OFFSET($B$6,0,$A$15)</f>
-        <v>Oct'15</v>
+        <v>Mar'15</v>
       </c>
       <c r="D15" s="5" t="str">
         <f ca="1">OFFSET($B$6,0,$A$15+1)</f>
-        <v>Nov'15</v>
+        <v>Apr'15</v>
       </c>
       <c r="E15" s="5" t="str">
         <f ca="1">OFFSET($B$6,0,$A$15+2)</f>
-        <v>Dec'15</v>
+        <v>May'15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <f ca="1">OFFSET($B$6,1,$A$15)</f>
-        <v>242503.25</v>
-      </c>
-      <c r="D16" s="53">
+        <v>220452.25</v>
+      </c>
+      <c r="D16" s="50">
         <f ca="1">OFFSET($B$6,1,$A$15+1)</f>
-        <v>212354.5</v>
-      </c>
-      <c r="E16" s="54">
+        <v>285377.5</v>
+      </c>
+      <c r="E16" s="51">
         <f ca="1">OFFSET($B$6,1,$A$15+2)</f>
-        <v>190275.5</v>
+        <v>292400.5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <f ca="1">OFFSET($B$6,2,$A$15)</f>
-        <v>195045</v>
-      </c>
-      <c r="D17" s="53">
+        <v>297115.5</v>
+      </c>
+      <c r="D17" s="50">
         <f ca="1">OFFSET($B$6,2,$A$15+1)</f>
-        <v>255637</v>
-      </c>
-      <c r="E17" s="54">
+        <v>231685.25</v>
+      </c>
+      <c r="E17" s="51">
         <f ca="1">OFFSET($B$6,2,$A$15+2)</f>
-        <v>191962.75</v>
+        <v>256641.75</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="52">
         <f ca="1">OFFSET($B$6,3,$A$15)</f>
-        <v>199935</v>
-      </c>
-      <c r="D18" s="55">
+        <v>246641.75</v>
+      </c>
+      <c r="D18" s="52">
         <f ca="1">OFFSET($B$6,3,$A$15+1)</f>
-        <v>195347</v>
-      </c>
-      <c r="E18" s="56">
+        <v>240793.5</v>
+      </c>
+      <c r="E18" s="53">
         <f ca="1">OFFSET($B$6,3,$A$15+2)</f>
-        <v>237966.5</v>
+        <v>222198.75</v>
       </c>
     </row>
   </sheetData>
@@ -11972,7 +14216,7 @@
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B5" sqref="B5:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
